--- a/outputs/tests_cases_feedbackAI_priority.xlsx
+++ b/outputs/tests_cases_feedbackAI_priority.xlsx
@@ -5090,9 +5090,9 @@
           <t>Computer</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Highest</t>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5940,9 +5940,9 @@
           <t>Computer</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Medium</t>
+      <c r="J92" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6406,9 +6406,9 @@
           <t>Terminale</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Medium</t>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -6654,9 +6654,9 @@
           <t>Terminale</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Medium</t>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
